--- a/Downer/32716/res_Sealing ITP.xlsx
+++ b/Downer/32716/res_Sealing ITP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\32716\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21CB75-22C6-4D6D-A773-53A0467C03DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDD388-4309-4A77-AD5A-1E2361C0BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="825" windowWidth="28890" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="1065" windowWidth="28890" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -80,46 +80,301 @@
     <t>Resource Id</t>
   </si>
   <si>
-    <t>Preliminary &amp; General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFICATION ACTIVITY - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHODS OR REFERENCE - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQ. - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TYPE - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSESSOR - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIPTION - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSIBLE PERSON - </t>
-  </si>
-  <si>
-    <t>Set-out / Site preparation</t>
-  </si>
-  <si>
-    <t>Preliminary Works</t>
-  </si>
-  <si>
-    <t>Digout Repairs</t>
-  </si>
-  <si>
-    <t>Pavement</t>
-  </si>
-  <si>
     <t>Sealing ITP</t>
+  </si>
+  <si>
+    <t>TYPE - H</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE PERSON - Nikhil Mishra</t>
+  </si>
+  <si>
+    <t>TYPE - V</t>
+  </si>
+  <si>
+    <t>ASSESSOR - Nikhil Mishra</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Visual check</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - CoPTTM</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Physical</t>
+  </si>
+  <si>
+    <t>TYPE - W</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Inspection</t>
+  </si>
+  <si>
+    <t>Seal Design</t>
+  </si>
+  <si>
+    <t>Surfacing design</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Request for surfacing</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Appendix 15 of contract specific MMP</t>
+  </si>
+  <si>
+    <t>FREQ. - Each surfacing establishment</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Quantity, location, bitumen grade, diluents', target application rate, chip grade, asphalt type, asphalt depth.</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - No work is to commence until designs have been provided</t>
+  </si>
+  <si>
+    <t>Preparation for surfacing</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Inspection/ Downer Survey</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Shape, ride, surface, saturation, (Client, Foreman and Site Engineer must sign QA form provided)</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - No work is to commence until inspection of pavement base layer has been inspected and logged via Downer Survey</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE PERSON - Mark Joblin / Nikhil Mishra</t>
+  </si>
+  <si>
+    <t>Chip Sealing</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Visual</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Documentation</t>
+  </si>
+  <si>
+    <t>FREQ. - Each Site</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Each vehicle to produce - Warrant of Fitness, Driver eligibility and calibration of machinery</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - No sealing is to commence until weather has been confirmed safe to seal</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE PERSON - Akhil Mohan /Nikhil Mishra</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - SIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA - Check SIS prior to sealing </t>
+  </si>
+  <si>
+    <t>Spray Bar Check</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Overlap Test</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - RQP 17.3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Ensure no overlap or gaps between bitumen from sprayers</t>
+  </si>
+  <si>
+    <t>Application rate of binder</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Insitu</t>
+  </si>
+  <si>
+    <t>FREQ. - As required by the design</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Application rate within tolerance of the seal design spray rate. Longitudinal overlap of spray runs as per design.</t>
+  </si>
+  <si>
+    <t>Aggregate - Quality</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Lab Test</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA M/6</t>
+  </si>
+  <si>
+    <t>FREQ. - 1 / 500m³</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Shape, size, cleanliness</t>
+  </si>
+  <si>
+    <t>Aggregate - Skid Resistance</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA M/6, NZTA T10</t>
+  </si>
+  <si>
+    <t>FREQ. - 1 / 1000m³</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Refer to NZTA T10 requirements</t>
+  </si>
+  <si>
+    <t>Aggregate - Crushing Resistance</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA M/6, NZS 4407 Test 3.10</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - 10% fines under 230 kN load</t>
+  </si>
+  <si>
+    <t>Aggregate - Weathering Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METHODS OR REFERENCE - NZTA M/6, NZS 4407 Test 3.11 </t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Shall have a quality index of AA or BA</t>
+  </si>
+  <si>
+    <t>Rolling (1)</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA P/3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Ensure chip has good contact with binder in all areas not just in wheel path</t>
+  </si>
+  <si>
+    <t>Rolling (2)</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Plant</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - RQP</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Pneumatic Tyre Roller (PTR) is to be used to roll sealed surface</t>
+  </si>
+  <si>
+    <t>Rolling (3)</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Time</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Calculate required rolling time as per equation in section 22</t>
+  </si>
+  <si>
+    <t>Post construction seal protection / Seal life</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Chipsealing in New Zealand NZTA (NZTA 2005)</t>
+  </si>
+  <si>
+    <t>FREQ. - Each site</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA P/17 or Chipsealing in New Zealand NZTA (NZTA 2005)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Extended rolling time and/or provide positive traffic management to assist compaction, chip embedment and to avoid early stripping</t>
+  </si>
+  <si>
+    <t>Disestablishment</t>
+  </si>
+  <si>
+    <t>Removal of surplus chip</t>
+  </si>
+  <si>
+    <t>FREQ. - Within 48 hours of rolling the site</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Not more than 20 loose chip within any 2m2</t>
+  </si>
+  <si>
+    <t>VERIFICATION ACTIVITY - Request for roadmarking</t>
+  </si>
+  <si>
+    <t>Pavement marking (1)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Request made when item programmed</t>
+  </si>
+  <si>
+    <t>Pavement marking (2)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Markings follow tabs or new markings installed according to MOTSAM</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Traffic control in place to protect new surface and removed following sweeping and pavement marking</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - No TM is to be removed until linemarking has been completed</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Site Recording</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Video evidence of site (seal finish) once it has been swept</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - Failures within seal surface must be rectified before site can be confirmed complete</t>
+  </si>
+  <si>
+    <t>Post seal Inspection</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Downer Survey</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - NZTA representative is satisfied with finished pavement surface, photograhic evidence shall be supplied if client is unable to attend. Inspection to be logged via Downer Survey</t>
+  </si>
+  <si>
+    <t>ASSESSOR - Mark Joblin / Nikhil Mishra</t>
+  </si>
+  <si>
+    <t>DESCRIPTION - Hold point - Client must have opportunity to be present on site to complete inspection of finished surface.</t>
+  </si>
+  <si>
+    <t>Final Measurement check</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - Check and measure site and confirm on as-built</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Once site has been completed and checked as as-built will be uploaded into RAMM Contractor</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE PERSON - Akhil Mohan</t>
+  </si>
+  <si>
+    <t>METHODS OR REFERENCE - NZTA P/3 Section 22</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
   </si>
 </sst>
 </file>
@@ -268,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +718,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +894,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="16" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,20 +1258,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1040,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -1050,7 +1319,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -1059,21 +1328,23 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1081,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1089,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1097,15 +1368,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,29 +1392,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+      <c r="A12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1159,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,15 +1440,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,29 +1472,31 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,15 +1528,15 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
+      <c r="A29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,29 +1552,31 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,15 +1608,15 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>21</v>
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,37 +1624,39 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
+      <c r="A43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1401,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1409,29 +1688,31 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>22</v>
+      <c r="A49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,23 +1720,23 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
+      <c r="A53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>18</v>
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1471,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,21 +1768,23 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,15 +1792,15 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>17</v>
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,29 +1840,31 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>16</v>
+      <c r="A70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1880,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,21 +1912,23 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>15</v>
+      <c r="B78" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1649,7 +1936,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1665,7 +1952,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1689,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1697,21 +1984,23 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +2040,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,29 +2048,31 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>22</v>
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="2"/>
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +2088,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,15 +2112,15 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>21</v>
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,29 +2128,31 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>24</v>
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="2"/>
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,7 +2168,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,15 +2176,15 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>19</v>
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,21 +2208,23 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +2232,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,15 +2240,15 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>18</v>
+      <c r="A118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,45 +2280,47 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>16</v>
+      <c r="A126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>17</v>
+      <c r="A127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2031,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2039,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2047,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,21 +2360,23 @@
         <v>9</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>15</v>
+      <c r="B134" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,29 +2424,31 @@
         <v>9</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>22</v>
+      <c r="A141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,15 +2480,15 @@
         <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>20</v>
+      <c r="A148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2496,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,29 +2504,31 @@
         <v>9</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="2"/>
+      <c r="A151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,45 +2552,47 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>20</v>
+      <c r="A157" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>21</v>
+      <c r="A158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>22</v>
+      <c r="A159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="2"/>
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,15 +2600,15 @@
         <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>17</v>
+      <c r="A163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2319,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2327,45 +2632,47 @@
         <v>9</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>21</v>
+      <c r="A167" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>22</v>
+      <c r="A168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>26</v>
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,15 +2680,15 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>17</v>
+      <c r="A173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2397,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2405,37 +2712,39 @@
         <v>9</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="A177" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2443,7 +2752,7 @@
         <v>9</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,1427 +2784,11 @@
         <v>9</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B206" s="2"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B215" s="2"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B224" s="2"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B296" s="2"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B305" s="2"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B314" s="2"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B323" s="2"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B332" s="2"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B341" s="2"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B350" s="2"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B359" s="2"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I5" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I185" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
